--- a/colours.xlsx
+++ b/colours.xlsx
@@ -771,7 +771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[211, 249, 123]</t>
+          <t>[178, 34, 187]</t>
         </is>
       </c>
     </row>
